--- a/DOC/API.xlsx
+++ b/DOC/API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -287,15 +287,52 @@
  "passwordNew":"123456"
 }</t>
   </si>
+  <si>
+    <t>Import kết quả khảo sát</t>
+  </si>
+  <si>
+    <t>/api/v1/survey/import</t>
+  </si>
+  <si>
+    <t>[{
+ "surveyId":1,
+ "questionId":1,
+ "officerId":1,
+ "answer":"ABCS"
+},
+{
+ "surveyId":1,
+ "questionId":1,
+ "officerId":2,
+ "answer":"àg ádavsdf"
+}]</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>http://13.250.191.59:8888</t>
+  </si>
+  <si>
+    <t>http://13.250.191.59:9000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,19 +380,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -655,24 +730,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="34.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="34.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,401 +756,455 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/DOC/API.xlsx
+++ b/DOC/API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -315,6 +315,54 @@
   </si>
   <si>
     <t>http://13.250.191.59:9000</t>
+  </si>
+  <si>
+    <t>Insert khảo sát</t>
+  </si>
+  <si>
+    <t>Sửa khảo sát</t>
+  </si>
+  <si>
+    <t>Tìm kiếm khảo sát</t>
+  </si>
+  <si>
+    <t>/api/v1/surveys</t>
+  </si>
+  <si>
+    <t>/api/v1/surveys/search</t>
+  </si>
+  <si>
+    <t>Insert câu hỏi khảo sát</t>
+  </si>
+  <si>
+    <t>/api/v1/survey/answers/search</t>
+  </si>
+  <si>
+    <t>/api/v1/survey/answers</t>
+  </si>
+  <si>
+    <t>/api/v1/survey/questions/search</t>
+  </si>
+  <si>
+    <t>/api/v1/survey/questions</t>
+  </si>
+  <si>
+    <t>Sửa câu hỏi khảo sát</t>
+  </si>
+  <si>
+    <t>Tìm kiếm câu hỏi khảo sát</t>
+  </si>
+  <si>
+    <t>Insert câu trả lời khảo sát</t>
+  </si>
+  <si>
+    <t>Sửa câu trả lời khảo sát</t>
+  </si>
+  <si>
+    <t>Tìm kiếm câu trả lời khảo sát</t>
+  </si>
+  <si>
+    <t>Tương tự như các API trước</t>
   </si>
 </sst>
 </file>
@@ -411,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,7 +475,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -730,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1229,7 @@
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1195,9 +1248,172 @@
         <v>52</v>
       </c>
     </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:C20"/>
+    <mergeCell ref="C22:C31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
